--- a/braph2/workflows/MultiplexMRI/Group1_MRI_data_layer2.xlsx
+++ b/braph2/workflows/MultiplexMRI/Group1_MRI_data_layer2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/PhD/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F389950-9AFC-4F6A-8F70-09358D7BEB18}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_E258DDDE8F79A8B36A3704F0FB5CC233402F749F" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B156B762-35C7-4E87-9CA7-C2225F185DDF}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>rFUS</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -285,13 +294,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,2310 +643,2376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ11"/>
+  <dimension ref="A1:BS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
         <v>0.26282543933500602</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0.80304369526822594</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1.282203258482539E-2</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.58922333474846156</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.95050969184202305</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.1157560511009207</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.1022209172693412</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.76012420896254707</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.22323651832762639</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.59089906570622241</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.62679423070854634</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.26934050166858442</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>0.88546703613150246</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.72136087460458365</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>7.6481949940339189E-2</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.51976488889962824</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.16325269705240231</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.54201749010094036</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.85748705763797672</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>0.39904677802550692</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.85596161474392729</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>0.81620860017842711</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.99619467086809388</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0.23918847291695891</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>0.79322199455393905</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>0.73578826118552176</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>9.9714159704088035E-2</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>0.14311744953736549</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.25819248067074058</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.68631810686834627</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>9.4501392899871028E-2</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0.84039440289012179</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0.486154072199243</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>0.1173476311992251</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>1.6533852433129329E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AM2">
         <v>0.54341394858142389</v>
       </c>
-      <c r="AL2">
+      <c r="AN2">
         <v>0.21964641997582679</v>
       </c>
-      <c r="AM2">
+      <c r="AO2">
         <v>0.47455649587030913</v>
       </c>
-      <c r="AN2">
+      <c r="AP2">
         <v>0.73113430845824867</v>
       </c>
-      <c r="AO2">
+      <c r="AQ2">
         <v>4.7459270225564072E-2</v>
       </c>
-      <c r="AP2">
+      <c r="AR2">
         <v>0.22203987143151341</v>
       </c>
-      <c r="AQ2">
+      <c r="AS2">
         <v>0.34566424952991981</v>
       </c>
-      <c r="AR2">
+      <c r="AT2">
         <v>0.12643024930816529</v>
       </c>
-      <c r="AS2">
+      <c r="AU2">
         <v>0.8676775705842027</v>
       </c>
-      <c r="AT2">
+      <c r="AV2">
         <v>0.80189839442514821</v>
       </c>
-      <c r="AU2">
+      <c r="AW2">
         <v>0.60030536252062439</v>
       </c>
-      <c r="AV2">
+      <c r="AX2">
         <v>0.49117024213440208</v>
       </c>
-      <c r="AW2">
+      <c r="AY2">
         <v>0.97684002209492538</v>
       </c>
-      <c r="AX2">
+      <c r="AZ2">
         <v>0.56033965963661858</v>
       </c>
-      <c r="AY2">
+      <c r="BA2">
         <v>0.94658379203386112</v>
       </c>
-      <c r="AZ2">
+      <c r="BB2">
         <v>0.42482359077217852</v>
       </c>
-      <c r="BA2">
+      <c r="BC2">
         <v>6.2614394171590315E-2</v>
       </c>
-      <c r="BB2">
+      <c r="BD2">
         <v>1.310050803890761E-2</v>
       </c>
-      <c r="BC2">
+      <c r="BE2">
         <v>0.73447836870683969</v>
       </c>
-      <c r="BD2">
+      <c r="BF2">
         <v>0.82599968634475085</v>
       </c>
-      <c r="BE2">
+      <c r="BG2">
         <v>0.99737329123365914</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>0.36895045360617867</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>8.6998187565718643E-2</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>0.70263634293187316</v>
       </c>
-      <c r="BI2">
+      <c r="BK2">
         <v>0.76854887776316183</v>
       </c>
-      <c r="BJ2">
+      <c r="BL2">
         <v>0.34173620682732397</v>
       </c>
-      <c r="BK2">
+      <c r="BM2">
         <v>0.83347042787577408</v>
       </c>
-      <c r="BL2">
+      <c r="BN2">
         <v>0.83366461920060986</v>
       </c>
-      <c r="BM2">
+      <c r="BO2">
         <v>0.1312598289613183</v>
       </c>
-      <c r="BN2">
+      <c r="BP2">
         <v>0.5659523982762642</v>
       </c>
-      <c r="BO2">
+      <c r="BQ2">
         <v>0.1107323536236984</v>
       </c>
-      <c r="BP2">
+      <c r="BR2">
         <v>0.67566764363726106</v>
       </c>
-      <c r="BQ2">
+      <c r="BS2">
         <v>5.5004736199610549E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3">
         <v>0.95970224509463009</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>8.6851243468437644E-2</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.45456166190795472</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>6.091757205085524E-2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.42615678988601441</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.67952650284622529</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.55942276963656001</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.1131655077066832</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>5.208733129633325E-2</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.20564614023094169</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>7.8502839329771867E-2</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.91946412027476776</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0.19336431193519019</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.99877454718353464</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.88588811046954852</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>7.0223321827012084E-3</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.26898472263919337</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.50083928918503906</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.65564759675288209</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.4079908994999516</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>8.3221790636635817E-2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>0.9676526354223558</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>0.84140565625278141</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>0.47614289979778079</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.9854453606909358</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>0.4516252788290871</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>0.462842502903554</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>0.1674389205860036</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>0.63680686833850941</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0.25062289607159588</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>0.44847736767883423</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0.29765468856496857</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>0.28899670151800921</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>0.7021379921451687</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>0.1008034099902471</v>
       </c>
-      <c r="AK3">
+      <c r="AM3">
         <v>0.40428303454946207</v>
       </c>
-      <c r="AL3">
+      <c r="AN3">
         <v>7.9859685050219009E-2</v>
       </c>
-      <c r="AM3">
+      <c r="AO3">
         <v>9.3148641423657086E-3</v>
       </c>
-      <c r="AN3">
+      <c r="AP3">
         <v>0.566951570743639</v>
       </c>
-      <c r="AO3">
+      <c r="AQ3">
         <v>4.5892051685977098E-2</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <v>4.184214964656463E-2</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>0.39851434131872332</v>
       </c>
-      <c r="AR3">
+      <c r="AT3">
         <v>0.74463334501317502</v>
       </c>
-      <c r="AS3">
+      <c r="AU3">
         <v>0.77887935696907251</v>
       </c>
-      <c r="AT3">
+      <c r="AV3">
         <v>0.54551008737079854</v>
       </c>
-      <c r="AU3">
+      <c r="AW3">
         <v>0.33287948325510391</v>
       </c>
-      <c r="AV3">
+      <c r="AX3">
         <v>0.19190724323253869</v>
       </c>
-      <c r="AW3">
+      <c r="AY3">
         <v>0.17355159938609491</v>
       </c>
-      <c r="AX3">
+      <c r="AZ3">
         <v>0.61648455648393308</v>
       </c>
-      <c r="AY3">
+      <c r="BA3">
         <v>0.94146186657863917</v>
       </c>
-      <c r="AZ3">
+      <c r="BB3">
         <v>0.55947534696657042</v>
       </c>
-      <c r="BA3">
+      <c r="BC3">
         <v>8.8967001078199326E-2</v>
       </c>
-      <c r="BB3">
+      <c r="BD3">
         <v>9.715967146998794E-2</v>
       </c>
-      <c r="BC3">
+      <c r="BE3">
         <v>0.71238139366165476</v>
       </c>
-      <c r="BD3">
+      <c r="BF3">
         <v>0.91685163041625906</v>
       </c>
-      <c r="BE3">
+      <c r="BG3">
         <v>0.97516713203059846</v>
       </c>
-      <c r="BF3">
+      <c r="BH3">
         <v>0.49566513427379361</v>
       </c>
-      <c r="BG3">
+      <c r="BI3">
         <v>0.4779590180744292</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>0.44391090765386793</v>
       </c>
-      <c r="BI3">
+      <c r="BK3">
         <v>0.32324182193151202</v>
       </c>
-      <c r="BJ3">
+      <c r="BL3">
         <v>0.55278737398438549</v>
       </c>
-      <c r="BK3">
+      <c r="BM3">
         <v>5.9111899665755363E-2</v>
       </c>
-      <c r="BL3">
+      <c r="BN3">
         <v>0.85365401158141585</v>
       </c>
-      <c r="BM3">
+      <c r="BO3">
         <v>0.24912818248695379</v>
       </c>
-      <c r="BN3">
+      <c r="BP3">
         <v>0.91853488659967775</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
         <v>0.473579698143196</v>
       </c>
-      <c r="BP3">
+      <c r="BR3">
         <v>0.40161724227800188</v>
       </c>
-      <c r="BQ3">
+      <c r="BS3">
         <v>0.1233197072439033</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
         <v>0.99321191798839015</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.67210423790651719</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.3508968028588701E-2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.20041845660319471</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.84585723798143175</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.74970140807281827</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.13204731854087831</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.93497462816780519</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>4.3822503414643221E-2</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.4409658637705679</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.19661387203360681</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.49051939843999598</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>0.26564608511339649</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.40883603393607582</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.19164993712122011</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.62240645572077014</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.37730615602823941</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>6.6064838767295742E-3</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.20969913391702011</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.59282836033777342</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.50909317615222416</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>0.11389344404463431</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>0.6215281992873033</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.860608095359087</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>0.70005929261260202</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>0.98423330415907995</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.39362809171969809</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>0.80306474191356436</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>0.5160687462244421</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.38011456226008128</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>0.8831506053431194</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>0.21185860475907919</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>0.77587828993209618</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>0.70378073404089359</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>0.86696820755418447</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>0.70974488535855695</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>0.95968315662739656</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>0.86785716495656917</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>0.74467645109973779</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>0.16597649373352411</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>0.42974041386918471</v>
       </c>
-      <c r="AQ4">
+      <c r="AS4">
         <v>0.34565761993857957</v>
       </c>
-      <c r="AR4">
+      <c r="AT4">
         <v>0.80004708574575378</v>
       </c>
-      <c r="AS4">
+      <c r="AU4">
         <v>0.68642137045573126</v>
       </c>
-      <c r="AT4">
+      <c r="AV4">
         <v>0.97049941755681324</v>
       </c>
-      <c r="AU4">
+      <c r="AW4">
         <v>0.22105439553203721</v>
       </c>
-      <c r="AV4">
+      <c r="AX4">
         <v>0.49460548179564939</v>
       </c>
-      <c r="AW4">
+      <c r="AY4">
         <v>0.36668063958041019</v>
       </c>
-      <c r="AX4">
+      <c r="AZ4">
         <v>0.1220567499727605</v>
       </c>
-      <c r="AY4">
+      <c r="BA4">
         <v>0.1281833992883927</v>
       </c>
-      <c r="AZ4">
+      <c r="BB4">
         <v>0.7699832639384806</v>
       </c>
-      <c r="BA4">
+      <c r="BC4">
         <v>0.40371390636366339</v>
       </c>
-      <c r="BB4">
+      <c r="BD4">
         <v>0.20743076895986551</v>
       </c>
-      <c r="BC4">
+      <c r="BE4">
         <v>0.8236693519413274</v>
       </c>
-      <c r="BD4">
+      <c r="BF4">
         <v>0.4082563369150165</v>
       </c>
-      <c r="BE4">
+      <c r="BG4">
         <v>4.863329842808628E-2</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>0.88214484206763832</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>0.69936533673590551</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>0.13699374815175219</v>
       </c>
-      <c r="BI4">
+      <c r="BK4">
         <v>2.808716457759786E-2</v>
       </c>
-      <c r="BJ4">
+      <c r="BL4">
         <v>0.1226364293211397</v>
       </c>
-      <c r="BK4">
+      <c r="BM4">
         <v>0.65434996123038047</v>
       </c>
-      <c r="BL4">
+      <c r="BN4">
         <v>0.34694310110411247</v>
       </c>
-      <c r="BM4">
+      <c r="BO4">
         <v>0.9497509585664019</v>
       </c>
-      <c r="BN4">
+      <c r="BP4">
         <v>0.65366504992920305</v>
       </c>
-      <c r="BO4">
+      <c r="BQ4">
         <v>0.1858667641118148</v>
       </c>
-      <c r="BP4">
+      <c r="BR4">
         <v>0.14923743908204259</v>
       </c>
-      <c r="BQ4">
+      <c r="BS4">
         <v>0.32906130505470338</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
         <v>0.45048070744924468</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>0.42675095861798013</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.88041136284309596</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.71467945698321755</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.30970225069775531</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.80435181195283789</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.50232562237818001</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.37214838677236389</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.2585359234290886</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.18900554824412419</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.69168873087900684</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.15547059976827951</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.60540912642535927</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.85129231625803115</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.8962717854682518E-3</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.16192095955090849</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.3618072121182202</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.20221273441963911</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.50200625492745432</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.18989064361167379</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>8.4986411211053769E-2</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>3.3665076708189079E-2</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>0.99148232203116948</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>0.58567368312077872</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>7.4807771699220038E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>1.1171885408778779E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.3384327292492143</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>0.30809294086880062</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.55289450914304317</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.13358686748000939</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>0.42316863754894007</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.20766858830397689</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>0.73129120843923312</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>0.1048223892661303</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>0.49449310235263022</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <v>0.44522940729888499</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <v>0.81681463693771805</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>0.96450088655461452</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>0.67895951373227215</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>0.92061793686709392</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <v>0.89617192051513139</v>
       </c>
-      <c r="AQ5">
+      <c r="AS5">
         <v>6.0527070264353437E-2</v>
       </c>
-      <c r="AR5">
+      <c r="AT5">
         <v>0.7935885874869919</v>
       </c>
-      <c r="AS5">
+      <c r="AU5">
         <v>0.84953856564846841</v>
       </c>
-      <c r="AT5">
+      <c r="AV5">
         <v>0.42816576510690763</v>
       </c>
-      <c r="AU5">
+      <c r="AW5">
         <v>0.84779760298079321</v>
       </c>
-      <c r="AV5">
+      <c r="AX5">
         <v>2.188170215341434E-2</v>
       </c>
-      <c r="AW5">
+      <c r="AY5">
         <v>0.1004910873395307</v>
       </c>
-      <c r="AX5">
+      <c r="AZ5">
         <v>0.67816761987271279</v>
       </c>
-      <c r="AY5">
+      <c r="BA5">
         <v>0.51077459123536884</v>
       </c>
-      <c r="AZ5">
+      <c r="BB5">
         <v>0.55643143788114702</v>
       </c>
-      <c r="BA5">
+      <c r="BC5">
         <v>0.37227878625627742</v>
       </c>
-      <c r="BB5">
+      <c r="BD5">
         <v>0.19851768358998281</v>
       </c>
-      <c r="BC5">
+      <c r="BE5">
         <v>0.29010223746224939</v>
       </c>
-      <c r="BD5">
+      <c r="BF5">
         <v>0.91809241008273179</v>
       </c>
-      <c r="BE5">
+      <c r="BG5">
         <v>0.54686018150206073</v>
       </c>
-      <c r="BF5">
+      <c r="BH5">
         <v>0.25296681743595478</v>
       </c>
-      <c r="BG5">
+      <c r="BI5">
         <v>0.84602687194151693</v>
       </c>
-      <c r="BH5">
+      <c r="BJ5">
         <v>0.71669039599060225</v>
       </c>
-      <c r="BI5">
+      <c r="BK5">
         <v>0.62688735626987913</v>
       </c>
-      <c r="BJ5">
+      <c r="BL5">
         <v>0.98927958945029548</v>
       </c>
-      <c r="BK5">
+      <c r="BM5">
         <v>0.32868392895890119</v>
       </c>
-      <c r="BL5">
+      <c r="BN5">
         <v>0.98070556856827407</v>
       </c>
-      <c r="BM5">
+      <c r="BO5">
         <v>0.80169121381168462</v>
       </c>
-      <c r="BN5">
+      <c r="BP5">
         <v>0.91411606145035107</v>
       </c>
-      <c r="BO5">
+      <c r="BQ5">
         <v>0.14390943345891441</v>
       </c>
-      <c r="BP5">
+      <c r="BR5">
         <v>9.2403143484027672E-2</v>
       </c>
-      <c r="BQ5">
+      <c r="BS5">
         <v>0.88665684962996993</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
         <v>0.44603553626779119</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>0.50127562439382645</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>4.4488886792809823E-2</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.53547398543432456</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.18011543556970261</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>7.6106742466793831E-3</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.85997284595231394</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.99658494999433567</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.66921708984972439</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.47887628424839412</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.99431024127490886</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.58500917453923529</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.2247649408321859</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.56807875436119648</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.58174398446391284</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.30267046780287482</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.68181537295565253</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.6885452149788831</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.33415387776411271</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.1986664609790901</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.4765271347182074</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>0.2314228233242058</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>4.7988120122251732E-2</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0.75221940791282116</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.37884472648155471</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>0.79839492933136424</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>0.67644497632760514</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>0.18168165066869921</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.1194348022833271</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.42588381835955658</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>0.67025753670867894</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.33949760466539491</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>0.32597096185447361</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>0.37382815037015937</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>0.58631466878848371</v>
       </c>
-      <c r="AK6">
+      <c r="AM6">
         <v>0.87726696571118301</v>
       </c>
-      <c r="AL6">
+      <c r="AN6">
         <v>0.22195058979739099</v>
       </c>
-      <c r="AM6">
+      <c r="AO6">
         <v>0.41126663317408441</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>0.54945801468936561</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>0.77400248808857519</v>
       </c>
-      <c r="AP6">
+      <c r="AR6">
         <v>0.18393159405549589</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>0.18257205569606899</v>
       </c>
-      <c r="AR6">
+      <c r="AT6">
         <v>0.49455422716963449</v>
       </c>
-      <c r="AS6">
+      <c r="AU6">
         <v>0.77593484015984093</v>
       </c>
-      <c r="AT6">
+      <c r="AV6">
         <v>0.74205434164149053</v>
       </c>
-      <c r="AU6">
+      <c r="AW6">
         <v>0.18134794620365821</v>
       </c>
-      <c r="AV6">
+      <c r="AX6">
         <v>0.51023994322753607</v>
       </c>
-      <c r="AW6">
+      <c r="AY6">
         <v>0.94293960073796335</v>
       </c>
-      <c r="AX6">
+      <c r="AZ6">
         <v>0.1027815284388232</v>
       </c>
-      <c r="AY6">
+      <c r="BA6">
         <v>0.20148811843222811</v>
       </c>
-      <c r="AZ6">
+      <c r="BB6">
         <v>0.81959838247477868</v>
       </c>
-      <c r="BA6">
+      <c r="BC6">
         <v>0.67577467670867775</v>
       </c>
-      <c r="BB6">
+      <c r="BD6">
         <v>4.1374401620584811E-2</v>
       </c>
-      <c r="BC6">
+      <c r="BE6">
         <v>0.81304513829306135</v>
       </c>
-      <c r="BD6">
+      <c r="BF6">
         <v>1.0517230389830431E-2</v>
       </c>
-      <c r="BE6">
+      <c r="BG6">
         <v>0.81347737574745693</v>
       </c>
-      <c r="BF6">
+      <c r="BH6">
         <v>0.89378428863812764</v>
       </c>
-      <c r="BG6">
+      <c r="BI6">
         <v>0.56111745365835664</v>
       </c>
-      <c r="BH6">
+      <c r="BJ6">
         <v>0.11482089015082909</v>
       </c>
-      <c r="BI6">
+      <c r="BK6">
         <v>0.15704811768694599</v>
       </c>
-      <c r="BJ6">
+      <c r="BL6">
         <v>2.2336200641187132E-2</v>
       </c>
-      <c r="BK6">
+      <c r="BM6">
         <v>0.81746511302801728</v>
       </c>
-      <c r="BL6">
+      <c r="BN6">
         <v>0.28565645246896698</v>
       </c>
-      <c r="BM6">
+      <c r="BO6">
         <v>0.93923484453217032</v>
       </c>
-      <c r="BN6">
+      <c r="BP6">
         <v>0.55525151434054176</v>
       </c>
-      <c r="BO6">
+      <c r="BQ6">
         <v>0.14871565633921471</v>
       </c>
-      <c r="BP6">
+      <c r="BR6">
         <v>2.095558560115673E-3</v>
       </c>
-      <c r="BQ6">
+      <c r="BS6">
         <v>0.1257727447753324</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
         <v>0.36193514108058522</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>0.24989301057578289</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>5.5416004118063127E-2</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.25391092599876369</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.52073007438872199</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.61224829090360822</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>2.1585267780599219E-2</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.49875085489179449</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.61431224119618366</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>3.827690675756279E-3</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.44762625061538353</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.90640419294924213</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.69108077195228934</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.1446508044882269</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.62882990832532626</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.46483307425712711</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.73286606222058637</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.49633489343227288</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.53454268983596809</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.64383983965677349</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.57127050732549622</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>0.48703570687006581</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>0.99086522375890995</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>0.37335149052358002</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.88092170477080889</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>0.90669008095475911</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>0.83558749658198661</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>0.58087824237878749</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>0.45296866920268819</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>0.27768784960978199</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>0.54571079342767281</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>0.5522833043656542</v>
       </c>
-      <c r="AH7">
+      <c r="AJ7">
         <v>0.39833789809382358</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>0.94216413650999431</v>
       </c>
-      <c r="AJ7">
+      <c r="AL7">
         <v>0.68210964721913614</v>
       </c>
-      <c r="AK7">
+      <c r="AM7">
         <v>0.2389703840792072</v>
       </c>
-      <c r="AL7">
+      <c r="AN7">
         <v>0.35127655838955779</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>0.47541145359805043</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>0.25484624668498213</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>8.1096724583537894E-2</v>
       </c>
-      <c r="AP7">
+      <c r="AR7">
         <v>0.85483693398973926</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>0.74282620878314964</v>
       </c>
-      <c r="AR7">
+      <c r="AT7">
         <v>0.98365329287421477</v>
       </c>
-      <c r="AS7">
+      <c r="AU7">
         <v>0.52632415559977852</v>
       </c>
-      <c r="AT7">
+      <c r="AV7">
         <v>0.61675959807211411</v>
       </c>
-      <c r="AU7">
+      <c r="AW7">
         <v>0.79571957532246196</v>
       </c>
-      <c r="AV7">
+      <c r="AX7">
         <v>0.55417616387386481</v>
       </c>
-      <c r="AW7">
+      <c r="AY7">
         <v>0.70454429661650086</v>
       </c>
-      <c r="AX7">
+      <c r="AZ7">
         <v>0.81884488431178981</v>
       </c>
-      <c r="AY7">
+      <c r="BA7">
         <v>0.37342121480919338</v>
       </c>
-      <c r="AZ7">
+      <c r="BB7">
         <v>0.17967637663732591</v>
       </c>
-      <c r="BA7">
+      <c r="BC7">
         <v>0.88175183164324233</v>
       </c>
-      <c r="BB7">
+      <c r="BD7">
         <v>0.92454475760841726</v>
       </c>
-      <c r="BC7">
+      <c r="BE7">
         <v>0.74270716430939876</v>
       </c>
-      <c r="BD7">
+      <c r="BF7">
         <v>0.5025466844870361</v>
       </c>
-      <c r="BE7">
+      <c r="BG7">
         <v>0.3403356223005124</v>
       </c>
-      <c r="BF7">
+      <c r="BH7">
         <v>0.51541675445215474</v>
       </c>
-      <c r="BG7">
+      <c r="BI7">
         <v>0.3755359901224995</v>
       </c>
-      <c r="BH7">
+      <c r="BJ7">
         <v>9.6906875249121005E-2</v>
       </c>
-      <c r="BI7">
+      <c r="BK7">
         <v>0.59093679409828936</v>
       </c>
-      <c r="BJ7">
+      <c r="BL7">
         <v>0.49831612916998391</v>
       </c>
-      <c r="BK7">
+      <c r="BM7">
         <v>0.28846300774704942</v>
       </c>
-      <c r="BL7">
+      <c r="BN7">
         <v>0.35622298255827722</v>
       </c>
-      <c r="BM7">
+      <c r="BO7">
         <v>0.74841937746658338</v>
       </c>
-      <c r="BN7">
+      <c r="BP7">
         <v>0.84142334212562797</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
         <v>0.18040117319883511</v>
       </c>
-      <c r="BP7">
+      <c r="BR7">
         <v>0.50962951313122917</v>
       </c>
-      <c r="BQ7">
+      <c r="BS7">
         <v>0.40611876670423441</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
         <v>0.53273531960396781</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>0.14702650674963691</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>7.6770407407496521E-2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.5188794331894987</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.21764124424507789</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.61568621391386458</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.58103766133570922</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.55955530885762816</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.9299840061922986</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.98723463552563273</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.73912632931913402</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.50642792065940001</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>4.1803194231205272E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.8093495016507547</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.62782227643521782</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.51450144453062396</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.29575203823237589</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>8.0256683858475397E-2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.61738806603723473</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.79975966331931403</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.3129444935793696</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>0.25137425550385351</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>0.65835289226859373</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>0.46724776843933419</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>0.71665712188207709</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>0.92165443208466946</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.86299132944365908</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>0.77629771306762896</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.85800449069800444</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.28632264081852449</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>0.81682975183831896</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>0.15222208838473689</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <v>0.1112036785573125</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>0.12866396191563961</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <v>9.3017721601323822E-2</v>
       </c>
-      <c r="AK8">
+      <c r="AM8">
         <v>0.9189826937753649</v>
       </c>
-      <c r="AL8">
+      <c r="AN8">
         <v>1.0077979275912471E-2</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>0.95604314347784158</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>0.65685994619270105</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>0.37727629622646869</v>
       </c>
-      <c r="AP8">
+      <c r="AR8">
         <v>0.11943937616297889</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>0.79897265921663041</v>
       </c>
-      <c r="AR8">
+      <c r="AT8">
         <v>0.30258372797151312</v>
       </c>
-      <c r="AS8">
+      <c r="AU8">
         <v>0.7838699457925975</v>
       </c>
-      <c r="AT8">
+      <c r="AV8">
         <v>0.57818889034150289</v>
       </c>
-      <c r="AU8">
+      <c r="AW8">
         <v>6.4642881563803822E-2</v>
       </c>
-      <c r="AV8">
+      <c r="AX8">
         <v>0.87268258000290577</v>
       </c>
-      <c r="AW8">
+      <c r="AY8">
         <v>0.5148460923169087</v>
       </c>
-      <c r="AX8">
+      <c r="AZ8">
         <v>0.79129798268984231</v>
       </c>
-      <c r="AY8">
+      <c r="BA8">
         <v>0.63745493519850382</v>
       </c>
-      <c r="AZ8">
+      <c r="BB8">
         <v>7.5991000768815042E-2</v>
       </c>
-      <c r="BA8">
+      <c r="BC8">
         <v>0.12540795976272101</v>
       </c>
-      <c r="BB8">
+      <c r="BD8">
         <v>0.38788188727281397</v>
       </c>
-      <c r="BC8">
+      <c r="BE8">
         <v>0.95430860402786954</v>
       </c>
-      <c r="BD8">
+      <c r="BF8">
         <v>0.53966195250575322</v>
       </c>
-      <c r="BE8">
+      <c r="BG8">
         <v>1.8263033959197369E-2</v>
       </c>
-      <c r="BF8">
+      <c r="BH8">
         <v>0.44150176056135959</v>
       </c>
-      <c r="BG8">
+      <c r="BI8">
         <v>0.91077669078274814</v>
       </c>
-      <c r="BH8">
+      <c r="BJ8">
         <v>0.12737049437826919</v>
       </c>
-      <c r="BI8">
+      <c r="BK8">
         <v>0.37182133682106372</v>
       </c>
-      <c r="BJ8">
+      <c r="BL8">
         <v>0.29483545916671638</v>
       </c>
-      <c r="BK8">
+      <c r="BM8">
         <v>0.44534764460200599</v>
       </c>
-      <c r="BL8">
+      <c r="BN8">
         <v>0.77053166553234442</v>
       </c>
-      <c r="BM8">
+      <c r="BO8">
         <v>0.64828310363713926</v>
       </c>
-      <c r="BN8">
+      <c r="BP8">
         <v>0.87076063245343405</v>
       </c>
-      <c r="BO8">
+      <c r="BQ8">
         <v>2.7829250039932311E-2</v>
       </c>
-      <c r="BP8">
+      <c r="BR8">
         <v>0.19726755211479111</v>
       </c>
-      <c r="BQ8">
+      <c r="BS8">
         <v>0.48406568693468183</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
         <v>0.12904595788694509</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>0.73138600736010273</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.39702297116614282</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.78727112611126338</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.1453250509983692</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.8020898324553669E-2</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>2.3171415956472319E-2</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.8544064185916298</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.32753294962928492</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.35596743564120698</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.21135463870958929</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.20565831456983949</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.80112469512475781</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.24340305470923859</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.78303550362718233</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.67172937950497857</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.45118635981825822</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.92120611169052014</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.65626966239405282</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.30431949159534671</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.57675496401698445</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.97474867790083919</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>0.81467165480300774</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0.35907171787983078</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.58026319264307191</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>0.71307072347364064</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.68123593140329108</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>0.27734060340841138</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>8.7767688955957546E-3</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.13152498692198539</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>0.67254552228221975</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>0.62387355879973438</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>0.70682938413655694</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>0.29883267727852869</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>0.72243643389359669</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>2.1123302127253E-2</v>
       </c>
-      <c r="AL9">
+      <c r="AN9">
         <v>0.93664790127179542</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>0.62881756688479362</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>0.55637203142892655</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>0.15019417467909069</v>
       </c>
-      <c r="AP9">
+      <c r="AR9">
         <v>0.74677457838383665</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>0.34917323135159728</v>
       </c>
-      <c r="AR9">
+      <c r="AT9">
         <v>0.78234306626151051</v>
       </c>
-      <c r="AS9">
+      <c r="AU9">
         <v>0.36159005421877011</v>
       </c>
-      <c r="AT9">
+      <c r="AV9">
         <v>0.88907010262108643</v>
       </c>
-      <c r="AU9">
+      <c r="AW9">
         <v>0.72776840971053403</v>
       </c>
-      <c r="AV9">
+      <c r="AX9">
         <v>0.24732115412972511</v>
       </c>
-      <c r="AW9">
+      <c r="AY9">
         <v>0.3253952812264006</v>
       </c>
-      <c r="AX9">
+      <c r="AZ9">
         <v>0.2521017965479001</v>
       </c>
-      <c r="AY9">
+      <c r="BA9">
         <v>0.8750831469225504</v>
       </c>
-      <c r="AZ9">
+      <c r="BB9">
         <v>0.54666136764249584</v>
       </c>
-      <c r="BA9">
+      <c r="BC9">
         <v>0.76951549871063551</v>
       </c>
-      <c r="BB9">
+      <c r="BD9">
         <v>0.55960003267870906</v>
       </c>
-      <c r="BC9">
+      <c r="BE9">
         <v>0.19679782120160499</v>
       </c>
-      <c r="BD9">
+      <c r="BF9">
         <v>0.74188712129515699</v>
       </c>
-      <c r="BE9">
+      <c r="BG9">
         <v>0.1254268633218957</v>
       </c>
-      <c r="BF9">
+      <c r="BH9">
         <v>0.60308807564450373</v>
       </c>
-      <c r="BG9">
+      <c r="BI9">
         <v>0.57252243877706699</v>
       </c>
-      <c r="BH9">
+      <c r="BJ9">
         <v>0.1105315561325038</v>
       </c>
-      <c r="BI9">
+      <c r="BK9">
         <v>0.21654759877801</v>
       </c>
-      <c r="BJ9">
+      <c r="BL9">
         <v>0.17858660859672501</v>
       </c>
-      <c r="BK9">
+      <c r="BM9">
         <v>7.7450424148373664E-2</v>
       </c>
-      <c r="BL9">
+      <c r="BN9">
         <v>0.1622417801606669</v>
       </c>
-      <c r="BM9">
+      <c r="BO9">
         <v>0.57984882066516563</v>
       </c>
-      <c r="BN9">
+      <c r="BP9">
         <v>0.41630308812412747</v>
       </c>
-      <c r="BO9">
+      <c r="BQ9">
         <v>0.73370825430922604</v>
       </c>
-      <c r="BP9">
+      <c r="BR9">
         <v>0.36359836696507047</v>
       </c>
-      <c r="BQ9">
+      <c r="BS9">
         <v>0.18887815830791191</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
         <v>0.24877687315556091</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>0.90296578344820388</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.98719798090794564</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>6.9311705638455456E-2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.6207709347546555</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.33757292368344588</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.13217035430484031</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.67688788183374682</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.51265468089411004</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.99054213531311608</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.44923208850518581</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.72560212816883307</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.87508467387772382</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.87390926426787641</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.57795917509346162</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.94190082085074756</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.4126712619086923</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.69843940398377968</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.96807951690647553</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.27687182608809457</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.43522114704854148</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>0.63705456552344142</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>0.66915370084606474</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0.20526852070166049</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>0.2005322804823991</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.64743763945665533</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.71413105318618519</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>0.65045474552402682</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>0.46395164375868181</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>0.34552664248560749</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>0.53550087403610858</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>0.69163464725032275</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>9.4203469944288409E-3</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>0.51000525983772105</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <v>8.6450373440605577E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>0.73671204859155304</v>
       </c>
-      <c r="AL10">
+      <c r="AN10">
         <v>2.8316724914353001E-2</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>0.89034248405945071</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>0.73872258517520584</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>0.39573590900180439</v>
       </c>
-      <c r="AP10">
+      <c r="AR10">
         <v>0.67653480486394924</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>0.35364583797316979</v>
       </c>
-      <c r="AR10">
+      <c r="AT10">
         <v>0.57556208239949547</v>
       </c>
-      <c r="AS10">
+      <c r="AU10">
         <v>0.8973123553598733</v>
       </c>
-      <c r="AT10">
+      <c r="AV10">
         <v>0.44261177101210508</v>
       </c>
-      <c r="AU10">
+      <c r="AW10">
         <v>0.67128448803146723</v>
       </c>
-      <c r="AV10">
+      <c r="AX10">
         <v>0.10235996993885001</v>
       </c>
-      <c r="AW10">
+      <c r="AY10">
         <v>0.32469633168285211</v>
       </c>
-      <c r="AX10">
+      <c r="AZ10">
         <v>0.93673477284738238</v>
       </c>
-      <c r="AY10">
+      <c r="BA10">
         <v>0.2171791897921436</v>
       </c>
-      <c r="AZ10">
+      <c r="BB10">
         <v>0.17767956013855449</v>
       </c>
-      <c r="BA10">
+      <c r="BC10">
         <v>0.1616220596430207</v>
       </c>
-      <c r="BB10">
+      <c r="BD10">
         <v>0.84620996742237475</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
         <v>0.62834743892390987</v>
       </c>
-      <c r="BD10">
+      <c r="BF10">
         <v>5.6632057458686713E-2</v>
       </c>
-      <c r="BE10">
+      <c r="BG10">
         <v>0.59979489243663431</v>
       </c>
-      <c r="BF10">
+      <c r="BH10">
         <v>0.8604384052343198</v>
       </c>
-      <c r="BG10">
+      <c r="BI10">
         <v>0.8731043640267363</v>
       </c>
-      <c r="BH10">
+      <c r="BJ10">
         <v>0.95183512237209633</v>
       </c>
-      <c r="BI10">
+      <c r="BK10">
         <v>8.2277902921626844E-2</v>
       </c>
-      <c r="BJ10">
+      <c r="BL10">
         <v>0.41937449189143061</v>
       </c>
-      <c r="BK10">
+      <c r="BM10">
         <v>1.970456525322661E-2</v>
       </c>
-      <c r="BL10">
+      <c r="BN10">
         <v>0.46870330020636458</v>
       </c>
-      <c r="BM10">
+      <c r="BO10">
         <v>0.90151944523346272</v>
       </c>
-      <c r="BN10">
+      <c r="BP10">
         <v>0.56700905096491849</v>
       </c>
-      <c r="BO10">
+      <c r="BQ10">
         <v>0.76893427656427427</v>
       </c>
-      <c r="BP10">
+      <c r="BR10">
         <v>0.6851829039688806</v>
       </c>
-      <c r="BQ10">
+      <c r="BS10">
         <v>0.87820103812496664</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
         <v>0.47804850645899821</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>3.4376087557266843E-2</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.44517530121745708</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.86711761707889978</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.63818042666871422</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.93371363921579476</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.32834748033388622</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.42246722567837591</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.7865540739057798</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.19280115118071681</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.98800024917332707</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.20001662599780079</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.28605547163756279</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.2253247816458426</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.51669283225718721</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.54204028817642125</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.56144438090839976</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.93151892483373233</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.72932113726315295</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.90833733523322902</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.43979689593689297</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.83466653749658493</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>0.49436128586161637</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0.60531504805397141</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.80972967115752748</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>5.2554272108114919E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.66019060170331145</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <v>0.42524926546386921</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <v>0.28219634085600331</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0.36388556473651201</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>0.11479683546831709</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>9.9446725770154898E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <v>0.55648249673908701</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <v>0.50084403244891851</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <v>0.6714897583708217</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>6.8937661727774713E-2</v>
       </c>
-      <c r="AL11">
+      <c r="AN11">
         <v>0.84919554327281221</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>0.3674223688366407</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>0.82882409842049098</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>6.0490054753250748E-2</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>0.57008337321174418</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>0.85811571299910328</v>
       </c>
-      <c r="AR11">
+      <c r="AT11">
         <v>0.4812033285812205</v>
       </c>
-      <c r="AS11">
+      <c r="AU11">
         <v>0.1170430756223783</v>
       </c>
-      <c r="AT11">
+      <c r="AV11">
         <v>0.84258530664027609</v>
       </c>
-      <c r="AU11">
+      <c r="AW11">
         <v>0.1942653154245548</v>
       </c>
-      <c r="AV11">
+      <c r="AX11">
         <v>0.67992372665074652</v>
       </c>
-      <c r="AW11">
+      <c r="AY11">
         <v>0.62716160246546127</v>
       </c>
-      <c r="AX11">
+      <c r="AZ11">
         <v>0.75963066202888363</v>
       </c>
-      <c r="AY11">
+      <c r="BA11">
         <v>0.41937614018231739</v>
       </c>
-      <c r="AZ11">
+      <c r="BB11">
         <v>0.93036870069081723</v>
       </c>
-      <c r="BA11">
+      <c r="BC11">
         <v>0.82784709508566545</v>
       </c>
-      <c r="BB11">
+      <c r="BD11">
         <v>3.5760902028707409E-2</v>
       </c>
-      <c r="BC11">
+      <c r="BE11">
         <v>0.62492982342195758</v>
       </c>
-      <c r="BD11">
+      <c r="BF11">
         <v>0.57506443682754937</v>
       </c>
-      <c r="BE11">
+      <c r="BG11">
         <v>0.37944521388687941</v>
       </c>
-      <c r="BF11">
+      <c r="BH11">
         <v>0.54507832121304134</v>
       </c>
-      <c r="BG11">
+      <c r="BI11">
         <v>0.1024672674861338</v>
       </c>
-      <c r="BH11">
+      <c r="BJ11">
         <v>0.62853896437359957</v>
       </c>
-      <c r="BI11">
+      <c r="BK11">
         <v>0.83397782043997415</v>
       </c>
-      <c r="BJ11">
+      <c r="BL11">
         <v>0.36408237858003062</v>
       </c>
-      <c r="BK11">
+      <c r="BM11">
         <v>0.6948377926118422</v>
       </c>
-      <c r="BL11">
+      <c r="BN11">
         <v>0.31012287130447308</v>
       </c>
-      <c r="BM11">
+      <c r="BO11">
         <v>0.53561880298816378</v>
       </c>
-      <c r="BN11">
+      <c r="BP11">
         <v>0.61063147500123893</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
         <v>0.13188642300384981</v>
       </c>
-      <c r="BP11">
+      <c r="BR11">
         <v>0.37394542109961088</v>
       </c>
-      <c r="BQ11">
+      <c r="BS11">
         <v>0.68820586183212518</v>
       </c>
     </row>
